--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -14,22 +14,262 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="27">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="1"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="1"/>
+      <u val="single"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="1"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="1"/>
+      <u val="none"/>
+      <i val="1"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="single"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="20"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+      <family val="1"/>
+      <b val="0"/>
+      <u val="none"/>
+      <i val="0"/>
+      <strike val="0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -44,15 +284,94 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border/>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf borderId="2" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf borderId="0" numFmtId="0" fontId="5" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf borderId="0" numFmtId="0" fontId="6" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf borderId="0" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="8" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="9" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="10" fillId="2" applyNumberFormat="0" applyFill="1" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="3" numFmtId="0" fontId="11" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="4" numFmtId="0" fontId="12" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="5" numFmtId="0" fontId="13" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="6" numFmtId="0" fontId="14" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="7" numFmtId="0" fontId="15" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="8" numFmtId="0" fontId="16" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="17" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf borderId="0" numFmtId="0" fontId="18" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf borderId="0" numFmtId="5" fontId="19" fillId="0" applyNumberFormat="1" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="14" fontId="20" fillId="0" applyNumberFormat="1" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="22" fontId="21" fillId="0" applyNumberFormat="1" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="1" fontId="22" fillId="0" applyNumberFormat="1" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="9" fontId="23" fillId="0" applyNumberFormat="1" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="49" fontId="24" fillId="0" applyNumberFormat="1" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="21" fontId="25" fillId="0" applyNumberFormat="1" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="48" fontId="26" fillId="0" applyNumberFormat="1" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -73,310 +392,310 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="24.200000000000003"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="24.200000000000003"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="44.8"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="30.799999999999997"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="30.799999999999997"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="21.0"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Header1</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Header2</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Header3</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Header4</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Header5</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="str">
+      <c r="A2" s="7" t="str">
         <f>ADD(1, 2)</f>
       </c>
-      <c r="B2" s="0" t="str">
+      <c r="B2" s="8" t="str">
         <f>1</f>
       </c>
-      <c r="C2" s="0" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>These are variables</t>
         </is>
       </c>
-      <c r="D2" s="0"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>A note</t>
         </is>
       </c>
-      <c r="B3" s="0"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>The font is red</t>
         </is>
       </c>
-      <c r="B4" s="0"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>The font is 'Comic Sans MS'</t>
         </is>
       </c>
-      <c r="B5" s="0"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>The font is size 20</t>
         </is>
       </c>
-      <c r="B6" s="0"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>The cell is green</t>
         </is>
       </c>
-      <c r="B7" s="0"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>This line is repeated 3 times</t>
         </is>
       </c>
-      <c r="B8" s="0"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>This line is repeated 3 times</t>
         </is>
       </c>
-      <c r="B9" s="0"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>This line is repeated 3 times</t>
         </is>
       </c>
-      <c r="B10" s="0"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" s="13" t="inlineStr">
         <is>
           <t>All borders</t>
         </is>
       </c>
-      <c r="B11" s="0"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="A12" s="9"/>
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>Top border</t>
         </is>
       </c>
-      <c r="C12" s="0"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" s="15" t="inlineStr">
         <is>
           <t>Bottom border</t>
         </is>
       </c>
-      <c r="B13" s="0"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="A14" s="9"/>
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>Left border</t>
         </is>
       </c>
-      <c r="C14" s="0"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" s="17" t="inlineStr">
         <is>
           <t>Right border</t>
         </is>
       </c>
-      <c r="B15" s="0"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0" t="inlineStr">
+      <c r="A16" s="9"/>
+      <c r="B16" s="18" t="inlineStr">
         <is>
           <t>Top &amp; right border</t>
         </is>
       </c>
-      <c r="C16" s="0"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" s="13" t="inlineStr">
         <is>
           <t>Dashed border</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
+      <c r="B17" s="13" t="inlineStr">
         <is>
           <t>Dotted border</t>
         </is>
       </c>
-      <c r="C17" s="0" t="inlineStr">
+      <c r="C17" s="13" t="inlineStr">
         <is>
           <t>Double border</t>
         </is>
       </c>
-      <c r="D17" s="0"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+      <c r="A18" s="13" t="inlineStr">
         <is>
           <t>Solid border</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
+      <c r="B18" s="13" t="inlineStr">
         <is>
           <t>Solid medium border</t>
         </is>
       </c>
-      <c r="C18" s="0" t="inlineStr">
+      <c r="C18" s="13" t="inlineStr">
         <is>
           <t>Solid thick border</t>
         </is>
       </c>
-      <c r="D18" s="0"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>Left align</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
+      <c r="B19" s="19" t="inlineStr">
         <is>
           <t>Center align</t>
         </is>
       </c>
-      <c r="C19" s="0" t="inlineStr">
+      <c r="C19" s="20" t="inlineStr">
         <is>
           <t>Right align</t>
         </is>
       </c>
-      <c r="D19" s="0"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>Number format: currency</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="21" t="n">
         <v>123456</v>
       </c>
-      <c r="C20" s="0"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>Number format: date</t>
         </is>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="22" t="n">
         <v>123456</v>
       </c>
-      <c r="C21" s="0"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>Number format: date_time</t>
         </is>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="23" t="n">
         <v>123456</v>
       </c>
-      <c r="C22" s="0"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>Number format: number</t>
         </is>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="24" t="n">
         <v>123456</v>
       </c>
-      <c r="C23" s="0"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>Number format: percent</t>
         </is>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="25" t="n">
         <v>123456</v>
       </c>
-      <c r="C24" s="0"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>Number format: text</t>
         </is>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="26" t="n">
         <v>123456</v>
       </c>
-      <c r="C25" s="0"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>Number format: time</t>
         </is>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="27" t="n">
         <v>123456</v>
       </c>
-      <c r="C26" s="0"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="inlineStr">
+      <c r="A27" s="9" t="inlineStr">
         <is>
           <t>Number format: scientific</t>
         </is>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="28" t="n">
         <v>123456</v>
       </c>
-      <c r="C27" s="0"/>
+      <c r="C27" s="9"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,6 +11,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <name val="Verdana"/>
@@ -75,8 +76,93 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="29">
     <border/>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="dashed"/>
+    </border>
+    <border>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+    </border>
+    <border>
+      <left style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+    </border>
+    <border>
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+    </border>
+    <border>
+      <top style="dotted"/>
+    </border>
+    <border>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+    </border>
+    <border>
+      <left style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+    </border>
+    <border>
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+    </border>
+    <border>
+      <top style="double"/>
+    </border>
+    <border>
+      <top style="double"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <left style="double"/>
+      <top style="double"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <left style="double"/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom style="double"/>
+    </border>
     <border>
       <top style="medium"/>
     </border>
@@ -96,23 +182,28 @@
       <bottom style="medium"/>
     </border>
     <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
-      <top style="medium"/>
+      <top style="thick"/>
+    </border>
+    <border>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,9 +256,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="48" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,13 +739,13 @@
       <c r="C16" s="0"/>
     </row>
     <row r="17" spans="1:4" customFormat="false">
-      <c r="A17" s="21" t="str">
+      <c r="A17" s="29" t="str">
         <v>Dashed border</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="33" t="str">
         <v>Dotted border</v>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="37" t="str">
         <v>Double border</v>
       </c>
       <c r="D17" s="0"/>
@@ -635,10 +754,10 @@
       <c r="A18" s="21" t="str">
         <v>Solid border</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="41" t="str">
         <v>Solid medium border</v>
       </c>
-      <c r="C18" s="21" t="str">
+      <c r="C18" s="45" t="str">
         <v>Solid thick border</v>
       </c>
       <c r="D18" s="0"/>
@@ -650,7 +769,7 @@
       <c r="B19" s="2" t="str">
         <v>Center align</v>
       </c>
-      <c r="C19" s="26" t="str">
+      <c r="C19" s="46" t="str">
         <v>Right align</v>
       </c>
       <c r="D19" s="0"/>
@@ -659,7 +778,7 @@
       <c r="A20" s="0" t="str">
         <v>Number format: currency</v>
       </c>
-      <c r="B20" s="0" t="str">
+      <c r="B20" s="47" t="str">
         <v>123456</v>
       </c>
       <c r="C20" s="0"/>
@@ -668,7 +787,7 @@
       <c r="A21" s="0" t="str">
         <v>Number format: date</v>
       </c>
-      <c r="B21" s="0" t="str">
+      <c r="B21" s="48" t="str">
         <v>123456</v>
       </c>
       <c r="C21" s="0"/>
@@ -677,7 +796,7 @@
       <c r="A22" s="0" t="str">
         <v>Number format: date_time</v>
       </c>
-      <c r="B22" s="0" t="str">
+      <c r="B22" s="49" t="str">
         <v>123456</v>
       </c>
       <c r="C22" s="0"/>
@@ -686,7 +805,7 @@
       <c r="A23" s="0" t="str">
         <v>Number format: number</v>
       </c>
-      <c r="B23" s="0" t="str">
+      <c r="B23" s="50" t="str">
         <v>123456</v>
       </c>
       <c r="C23" s="0"/>
@@ -695,7 +814,7 @@
       <c r="A24" s="0" t="str">
         <v>Number format: percent</v>
       </c>
-      <c r="B24" s="0" t="str">
+      <c r="B24" s="51" t="str">
         <v>123456</v>
       </c>
       <c r="C24" s="0"/>
@@ -704,7 +823,7 @@
       <c r="A25" s="0" t="str">
         <v>Number format: text</v>
       </c>
-      <c r="B25" s="0" t="str">
+      <c r="B25" s="52" t="str">
         <v>123456</v>
       </c>
       <c r="C25" s="0"/>
@@ -713,7 +832,7 @@
       <c r="A26" s="0" t="str">
         <v>Number format: time</v>
       </c>
-      <c r="B26" s="0" t="str">
+      <c r="B26" s="53" t="str">
         <v>123456</v>
       </c>
       <c r="C26" s="0"/>
@@ -722,7 +841,7 @@
       <c r="A27" s="0" t="str">
         <v>Number format: scientific</v>
       </c>
-      <c r="B27" s="0" t="str">
+      <c r="B27" s="54" t="str">
         <v>123456</v>
       </c>
       <c r="C27" s="0"/>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -3,8 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Excel test" sheetId="2" r:id="rId4"/>
+    <sheet name="Excel test" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -614,12 +613,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <dimension ref="A1:E27"/>
   <sheetData>
     <row r="1" spans="1:5" customFormat="false">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +297,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
     <xf numFmtId="48" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +636,7 @@
       <c r="A1" s="3" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="55" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="8" t="str">
@@ -636,7 +653,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="13" t="str">
+      <c r="B2" s="56" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,28 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -213,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +323,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -633,19 +682,19 @@
   <dimension ref="A1:E27"/>
   <sheetData>
     <row r="1" spans="1:5" customFormat="false">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="55" t="str">
+      <c r="B1" s="64" t="str">
         <v>Header2</v>
       </c>
-      <c r="C1" s="8" t="str">
+      <c r="C1" s="62" t="str">
         <v>Header3</v>
       </c>
       <c r="D1" s="11" t="str">
         <v>Header4</v>
       </c>
-      <c r="E1" s="3" t="str">
+      <c r="E1" s="57" t="str">
         <v>Header5</v>
       </c>
     </row>
@@ -653,7 +702,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="56" t="str">
+      <c r="B2" s="65" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">
@@ -776,7 +825,7 @@
       <c r="A19" s="12" t="str">
         <v>Left align</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="1" t="str">
         <v>Center align</v>
       </c>
       <c r="C19" s="46" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -235,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +361,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -685,7 +702,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="64" t="str">
+      <c r="B1" s="66" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -702,7 +719,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="67" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -246,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +378,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -702,7 +719,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="66" t="str">
+      <c r="B1" s="68" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -719,7 +736,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="67" t="str">
+      <c r="B2" s="69" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="30">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,61 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -257,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,6 +439,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -719,7 +804,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="68" t="str">
+      <c r="B1" s="78" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -736,7 +821,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="69" t="str">
+      <c r="B2" s="79" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="40">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,61 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -312,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -469,6 +524,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -804,7 +889,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="78" t="str">
+      <c r="B1" s="88" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -821,7 +906,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="89" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="40">
+  <fonts count="46">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,39 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -367,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +587,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -889,7 +940,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="88" t="str">
+      <c r="B1" s="94" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -906,7 +957,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="89" t="str">
+      <c r="B2" s="95" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="46">
+  <fonts count="52">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,39 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -400,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,6 +638,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -940,7 +991,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="94" t="str">
+      <c r="B1" s="100" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -957,7 +1008,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="95" t="str">
+      <c r="B2" s="101" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="52">
+  <fonts count="68">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,94 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -433,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,6 +744,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -991,7 +1127,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="100" t="str">
+      <c r="B1" s="116" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1008,7 +1144,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="101" t="str">
+      <c r="B2" s="117" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="68">
+  <fonts count="76">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,50 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -521,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,6 +836,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1195,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="116" t="str">
+      <c r="B1" s="124" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1144,7 +1212,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="117" t="str">
+      <c r="B2" s="125" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="76">
+  <fonts count="82">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,39 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -565,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,6 +893,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1246,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="124" t="str">
+      <c r="B1" s="130" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1212,7 +1263,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="125" t="str">
+      <c r="B2" s="131" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="82">
+  <fonts count="94">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,72 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -598,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -911,6 +977,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1348,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="130" t="str">
+      <c r="B1" s="142" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1263,7 +1365,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="143" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="94">
+  <fonts count="98">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,28 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -664,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1013,6 +1035,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1348,7 +1382,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="142" t="str">
+      <c r="B1" s="146" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1365,7 +1399,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="143" t="str">
+      <c r="B2" s="147" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="98">
+  <fonts count="108">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,61 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -686,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,6 +1102,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1382,7 +1467,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="146" t="str">
+      <c r="B1" s="156" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1399,7 +1484,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="147" t="str">
+      <c r="B2" s="157" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="108">
+  <fonts count="110">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -741,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1132,6 +1143,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1467,7 +1484,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="156" t="str">
+      <c r="B1" s="158" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1484,7 +1501,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="157" t="str">
+      <c r="B2" s="159" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="110">
+  <fonts count="116">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,39 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -752,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1149,6 +1182,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1484,7 +1535,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="158" t="str">
+      <c r="B1" s="164" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1501,7 +1552,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="159" t="str">
+      <c r="B2" s="165" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="116">
+  <fonts count="124">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,50 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -785,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1200,6 +1244,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1535,7 +1603,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="164" t="str">
+      <c r="B1" s="172" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1552,7 +1620,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="165" t="str">
+      <c r="B2" s="173" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="124">
+  <fonts count="138">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,83 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -829,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1268,6 +1345,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1603,7 +1722,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="172" t="str">
+      <c r="B1" s="186" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1620,7 +1739,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="173" t="str">
+      <c r="B2" s="187" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="138">
+  <fonts count="148">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,61 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -906,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1387,6 +1442,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1722,7 +1807,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="186" t="str">
+      <c r="B1" s="196" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1739,7 +1824,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="187" t="str">
+      <c r="B2" s="197" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="148">
+  <fonts count="150">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -961,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1472,6 +1483,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1807,7 +1824,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="196" t="str">
+      <c r="B1" s="198" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1824,7 +1841,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="197" t="str">
+      <c r="B2" s="199" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -972,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1490,6 +1490,24 @@
     </xf>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1821,30 +1839,30 @@
   <dimension ref="A1:E27"/>
   <sheetData>
     <row r="1" spans="1:5" customFormat="false">
-      <c r="A1" s="57" t="str">
+      <c r="A1" s="200" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="198" t="str">
+      <c r="B1" s="200" t="str">
         <v>Header2</v>
       </c>
-      <c r="C1" s="62" t="str">
+      <c r="C1" s="202" t="str">
         <v>Header3</v>
       </c>
-      <c r="D1" s="11" t="str">
+      <c r="D1" s="203" t="str">
         <v>Header4</v>
       </c>
-      <c r="E1" s="57" t="str">
+      <c r="E1" s="200" t="str">
         <v>Header5</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="false">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="204" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="199" t="str">
+      <c r="B2" s="204" t="str">
         <v>=1</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="204" t="str">
         <v>These are variables</v>
       </c>
       <c r="D2" s="0"/>
@@ -1961,13 +1979,13 @@
       <c r="D18" s="0"/>
     </row>
     <row r="19" spans="1:4" customFormat="false">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="204" t="str">
         <v>Left align</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" s="200" t="str">
         <v>Center align</v>
       </c>
-      <c r="C19" s="46" t="str">
+      <c r="C19" s="205" t="str">
         <v>Right align</v>
       </c>
       <c r="D19" s="0"/>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -972,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1490,6 +1490,24 @@
     </xf>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1839,30 +1857,30 @@
   <dimension ref="A1:E27"/>
   <sheetData>
     <row r="1" spans="1:5" customFormat="false">
-      <c r="A1" s="200" t="str">
+      <c r="A1" s="206" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="200" t="str">
+      <c r="B1" s="206" t="str">
         <v>Header2</v>
       </c>
-      <c r="C1" s="202" t="str">
+      <c r="C1" s="208" t="str">
         <v>Header3</v>
       </c>
-      <c r="D1" s="203" t="str">
+      <c r="D1" s="209" t="str">
         <v>Header4</v>
       </c>
-      <c r="E1" s="200" t="str">
+      <c r="E1" s="206" t="str">
         <v>Header5</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="false">
-      <c r="A2" s="204" t="str">
+      <c r="A2" s="210" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="204" t="str">
+      <c r="B2" s="210" t="str">
         <v>=1</v>
       </c>
-      <c r="C2" s="204" t="str">
+      <c r="C2" s="210" t="str">
         <v>These are variables</v>
       </c>
       <c r="D2" s="0"/>
@@ -1979,13 +1997,13 @@
       <c r="D18" s="0"/>
     </row>
     <row r="19" spans="1:4" customFormat="false">
-      <c r="A19" s="204" t="str">
+      <c r="A19" s="210" t="str">
         <v>Left align</v>
       </c>
-      <c r="B19" s="200" t="str">
+      <c r="B19" s="206" t="str">
         <v>Center align</v>
       </c>
-      <c r="C19" s="205" t="str">
+      <c r="C19" s="211" t="str">
         <v>Right align</v>
       </c>
       <c r="D19" s="0"/>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -972,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1490,6 +1490,24 @@
     </xf>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1857,30 +1875,30 @@
   <dimension ref="A1:E27"/>
   <sheetData>
     <row r="1" spans="1:5" customFormat="false">
-      <c r="A1" s="206" t="str">
+      <c r="A1" s="212" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="206" t="str">
+      <c r="B1" s="212" t="str">
         <v>Header2</v>
       </c>
-      <c r="C1" s="208" t="str">
+      <c r="C1" s="214" t="str">
         <v>Header3</v>
       </c>
-      <c r="D1" s="209" t="str">
+      <c r="D1" s="215" t="str">
         <v>Header4</v>
       </c>
-      <c r="E1" s="206" t="str">
+      <c r="E1" s="212" t="str">
         <v>Header5</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="false">
-      <c r="A2" s="210" t="str">
+      <c r="A2" s="216" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="210" t="str">
+      <c r="B2" s="216" t="str">
         <v>=1</v>
       </c>
-      <c r="C2" s="210" t="str">
+      <c r="C2" s="216" t="str">
         <v>These are variables</v>
       </c>
       <c r="D2" s="0"/>
@@ -1997,13 +2015,13 @@
       <c r="D18" s="0"/>
     </row>
     <row r="19" spans="1:4" customFormat="false">
-      <c r="A19" s="210" t="str">
+      <c r="A19" s="216" t="str">
         <v>Left align</v>
       </c>
-      <c r="B19" s="206" t="str">
+      <c r="B19" s="212" t="str">
         <v>Center align</v>
       </c>
-      <c r="C19" s="211" t="str">
+      <c r="C19" s="217" t="str">
         <v>Right align</v>
       </c>
       <c r="D19" s="0"/>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -972,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1490,6 +1490,42 @@
     </xf>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1875,30 +1911,30 @@
   <dimension ref="A1:E27"/>
   <sheetData>
     <row r="1" spans="1:5" customFormat="false">
-      <c r="A1" s="212" t="str">
+      <c r="A1" s="224" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="212" t="str">
+      <c r="B1" s="224" t="str">
         <v>Header2</v>
       </c>
-      <c r="C1" s="214" t="str">
+      <c r="C1" s="226" t="str">
         <v>Header3</v>
       </c>
-      <c r="D1" s="215" t="str">
+      <c r="D1" s="227" t="str">
         <v>Header4</v>
       </c>
-      <c r="E1" s="212" t="str">
+      <c r="E1" s="224" t="str">
         <v>Header5</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="false">
-      <c r="A2" s="216" t="str">
+      <c r="A2" s="228" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="216" t="str">
+      <c r="B2" s="228" t="str">
         <v>=1</v>
       </c>
-      <c r="C2" s="216" t="str">
+      <c r="C2" s="228" t="str">
         <v>These are variables</v>
       </c>
       <c r="D2" s="0"/>
@@ -2015,13 +2051,13 @@
       <c r="D18" s="0"/>
     </row>
     <row r="19" spans="1:4" customFormat="false">
-      <c r="A19" s="216" t="str">
+      <c r="A19" s="228" t="str">
         <v>Left align</v>
       </c>
-      <c r="B19" s="212" t="str">
+      <c r="B19" s="224" t="str">
         <v>Center align</v>
       </c>
-      <c r="C19" s="217" t="str">
+      <c r="C19" s="229" t="str">
         <v>Right align</v>
       </c>
       <c r="D19" s="0"/>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="150">
+  <fonts count="152">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -972,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1580,6 +1591,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1911,30 +1928,30 @@
   <dimension ref="A1:E27"/>
   <sheetData>
     <row r="1" spans="1:5" customFormat="false">
-      <c r="A1" s="224" t="str">
+      <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="224" t="str">
+      <c r="B1" s="230" t="str">
         <v>Header2</v>
       </c>
-      <c r="C1" s="226" t="str">
+      <c r="C1" s="62" t="str">
         <v>Header3</v>
       </c>
-      <c r="D1" s="227" t="str">
+      <c r="D1" s="11" t="str">
         <v>Header4</v>
       </c>
-      <c r="E1" s="224" t="str">
+      <c r="E1" s="57" t="str">
         <v>Header5</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="false">
-      <c r="A2" s="228" t="str">
+      <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="228" t="str">
+      <c r="B2" s="231" t="str">
         <v>=1</v>
       </c>
-      <c r="C2" s="228" t="str">
+      <c r="C2" s="12" t="str">
         <v>These are variables</v>
       </c>
       <c r="D2" s="0"/>
@@ -2051,13 +2068,13 @@
       <c r="D18" s="0"/>
     </row>
     <row r="19" spans="1:4" customFormat="false">
-      <c r="A19" s="228" t="str">
+      <c r="A19" s="12" t="str">
         <v>Left align</v>
       </c>
-      <c r="B19" s="224" t="str">
+      <c r="B19" s="1" t="str">
         <v>Center align</v>
       </c>
-      <c r="C19" s="229" t="str">
+      <c r="C19" s="46" t="str">
         <v>Right align</v>
       </c>
       <c r="D19" s="0"/>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="152">
+  <fonts count="154">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -983,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1596,6 +1607,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1931,7 +1948,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="230" t="str">
+      <c r="B1" s="232" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1948,7 +1965,7 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="231" t="str">
+      <c r="B2" s="233" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="154">
+  <fonts count="158">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,28 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -994,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1613,6 +1635,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1948,7 +1982,7 @@
       <c r="A1" s="57" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="232" t="str">
+      <c r="B1" s="236" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="62" t="str">
@@ -1965,13 +1999,13 @@
       <c r="A2" s="12" t="str">
         <v>=ADD(1, 2)</v>
       </c>
-      <c r="B2" s="233" t="str">
+      <c r="B2" s="237" t="str">
         <v>=1</v>
       </c>
       <c r="C2" s="12" t="str">
         <v>These are variables</v>
       </c>
-      <c r="D2" s="0"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:2" customFormat="false">
       <c r="A3" s="0" t="str">

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="34">
+  <fonts count="38">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,28 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -334,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +487,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,7 +828,7 @@
       <c r="A1" s="2" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="76" t="str">
+      <c r="B1" s="80" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="7" t="str">
@@ -816,7 +846,7 @@
         <f>(1 + 2)</f>
         <v/>
       </c>
-      <c r="B2" s="77">
+      <c r="B2" s="81">
         <f>1</f>
         <v/>
       </c>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="38">
+  <fonts count="52">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,83 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -356,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,6 +572,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,7 +933,7 @@
       <c r="A1" s="2" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="80" t="str">
+      <c r="B1" s="94" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="7" t="str">
@@ -846,7 +951,7 @@
         <f>(1 + 2)</f>
         <v/>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="95">
         <f>1</f>
         <v/>
       </c>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="52">
+  <fonts count="54">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -433,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,6 +611,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,7 +948,7 @@
       <c r="A1" s="2" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="94" t="str">
+      <c r="B1" s="96" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="7" t="str">
@@ -951,7 +966,7 @@
         <f>(1 + 2)</f>
         <v/>
       </c>
-      <c r="B2" s="95">
+      <c r="B2" s="97">
         <f>1</f>
         <v/>
       </c>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="54">
+  <fonts count="56">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -444,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,6 +626,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,7 +963,7 @@
       <c r="A1" s="2" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="96" t="str">
+      <c r="B1" s="98" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="7" t="str">
@@ -966,7 +981,7 @@
         <f>(1 + 2)</f>
         <v/>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="99">
         <f>1</f>
         <v/>
       </c>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="56">
+  <fonts count="68">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,72 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -455,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -630,6 +696,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,7 +1053,7 @@
       <c r="A1" s="2" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="98" t="str">
+      <c r="B1" s="110" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="7" t="str">
@@ -981,7 +1071,7 @@
         <f>(1 + 2)</f>
         <v/>
       </c>
-      <c r="B2" s="99">
+      <c r="B2" s="111">
         <f>1</f>
         <v/>
       </c>

--- a/examples/all_features.xlsx
+++ b/examples/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="68">
+  <fonts count="70">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -60,6 +60,17 @@
     <font>
       <name val="Verdana"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10"/>
+      <u val="1"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -521,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,6 +731,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,7 +1068,7 @@
       <c r="A1" s="2" t="str">
         <v>Header1</v>
       </c>
-      <c r="B1" s="110" t="str">
+      <c r="B1" s="112" t="str">
         <v>Header2</v>
       </c>
       <c r="C1" s="7" t="str">
@@ -1071,7 +1086,7 @@
         <f>(1 + 2)</f>
         <v/>
       </c>
-      <c r="B2" s="111">
+      <c r="B2" s="113">
         <f>1</f>
         <v/>
       </c>
